--- a/設計書/01_バッチ設計書/バッチ処理設計書.xlsx
+++ b/設計書/01_バッチ設計書/バッチ処理設計書.xlsx
@@ -939,7 +939,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,9 +1052,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
@@ -3872,8 +3869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU207"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE32" sqref="AE32"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A71" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE83" sqref="AE83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -7593,7 +7590,7 @@
       <c r="S80" s="28"/>
       <c r="T80" s="28"/>
       <c r="U80" s="29"/>
-      <c r="V80" s="38" t="s">
+      <c r="V80" s="27" t="s">
         <v>33</v>
       </c>
       <c r="W80" s="28"/>
@@ -7652,7 +7649,7 @@
       <c r="S81" s="28"/>
       <c r="T81" s="28"/>
       <c r="U81" s="29"/>
-      <c r="V81" s="38" t="s">
+      <c r="V81" s="27" t="s">
         <v>35</v>
       </c>
       <c r="W81" s="28"/>
@@ -7711,7 +7708,7 @@
       <c r="S82" s="28"/>
       <c r="T82" s="28"/>
       <c r="U82" s="29"/>
-      <c r="V82" s="38" t="s">
+      <c r="V82" s="27" t="s">
         <v>37</v>
       </c>
       <c r="W82" s="28"/>
@@ -7770,7 +7767,7 @@
       <c r="S83" s="28"/>
       <c r="T83" s="28"/>
       <c r="U83" s="29"/>
-      <c r="V83" s="38" t="s">
+      <c r="V83" s="27" t="s">
         <v>40</v>
       </c>
       <c r="W83" s="28"/>
@@ -7829,7 +7826,7 @@
       <c r="S84" s="28"/>
       <c r="T84" s="28"/>
       <c r="U84" s="29"/>
-      <c r="V84" s="38" t="s">
+      <c r="V84" s="27" t="s">
         <v>43</v>
       </c>
       <c r="W84" s="28"/>
@@ -7868,12 +7865,12 @@
       <c r="E85" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
-      <c r="K85" s="40"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="39"/>
       <c r="L85" s="27" t="s">
         <v>20</v>
       </c>
@@ -7888,7 +7885,7 @@
       <c r="S85" s="28"/>
       <c r="T85" s="28"/>
       <c r="U85" s="29"/>
-      <c r="V85" s="38" t="s">
+      <c r="V85" s="27" t="s">
         <v>45</v>
       </c>
       <c r="W85" s="28"/>
@@ -7927,12 +7924,12 @@
       <c r="E86" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="40"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="39"/>
       <c r="L86" s="27" t="s">
         <v>20</v>
       </c>
@@ -7947,7 +7944,7 @@
       <c r="S86" s="28"/>
       <c r="T86" s="28"/>
       <c r="U86" s="29"/>
-      <c r="V86" s="38" t="s">
+      <c r="V86" s="27" t="s">
         <v>47</v>
       </c>
       <c r="W86" s="28"/>
@@ -8006,7 +8003,7 @@
       <c r="S87" s="28"/>
       <c r="T87" s="28"/>
       <c r="U87" s="29"/>
-      <c r="V87" s="38" t="s">
+      <c r="V87" s="27" t="s">
         <v>49</v>
       </c>
       <c r="W87" s="28"/>
@@ -8065,7 +8062,7 @@
       <c r="S88" s="28"/>
       <c r="T88" s="28"/>
       <c r="U88" s="29"/>
-      <c r="V88" s="38" t="s">
+      <c r="V88" s="27" t="s">
         <v>51</v>
       </c>
       <c r="W88" s="28"/>
@@ -8124,7 +8121,7 @@
       <c r="S89" s="28"/>
       <c r="T89" s="28"/>
       <c r="U89" s="29"/>
-      <c r="V89" s="38" t="s">
+      <c r="V89" s="27" t="s">
         <v>53</v>
       </c>
       <c r="W89" s="28"/>
@@ -8183,7 +8180,7 @@
       <c r="S90" s="28"/>
       <c r="T90" s="28"/>
       <c r="U90" s="29"/>
-      <c r="V90" s="38" t="s">
+      <c r="V90" s="27" t="s">
         <v>55</v>
       </c>
       <c r="W90" s="28"/>
@@ -8242,7 +8239,7 @@
       <c r="S91" s="28"/>
       <c r="T91" s="28"/>
       <c r="U91" s="29"/>
-      <c r="V91" s="38" t="s">
+      <c r="V91" s="27" t="s">
         <v>57</v>
       </c>
       <c r="W91" s="28"/>
@@ -8301,7 +8298,7 @@
       <c r="S92" s="28"/>
       <c r="T92" s="28"/>
       <c r="U92" s="29"/>
-      <c r="V92" s="38" t="s">
+      <c r="V92" s="27" t="s">
         <v>59</v>
       </c>
       <c r="W92" s="28"/>
@@ -8360,7 +8357,7 @@
       <c r="S93" s="28"/>
       <c r="T93" s="28"/>
       <c r="U93" s="29"/>
-      <c r="V93" s="38" t="s">
+      <c r="V93" s="27" t="s">
         <v>61</v>
       </c>
       <c r="W93" s="28"/>
@@ -8419,7 +8416,7 @@
       <c r="S94" s="28"/>
       <c r="T94" s="28"/>
       <c r="U94" s="29"/>
-      <c r="V94" s="38" t="s">
+      <c r="V94" s="27" t="s">
         <v>63</v>
       </c>
       <c r="W94" s="28"/>
@@ -8478,7 +8475,7 @@
       <c r="S95" s="28"/>
       <c r="T95" s="28"/>
       <c r="U95" s="29"/>
-      <c r="V95" s="38" t="s">
+      <c r="V95" s="27" t="s">
         <v>65</v>
       </c>
       <c r="W95" s="28"/>
@@ -8537,7 +8534,7 @@
       <c r="S96" s="28"/>
       <c r="T96" s="28"/>
       <c r="U96" s="29"/>
-      <c r="V96" s="38" t="s">
+      <c r="V96" s="27" t="s">
         <v>67</v>
       </c>
       <c r="W96" s="28"/>
@@ -8596,7 +8593,7 @@
       <c r="S97" s="28"/>
       <c r="T97" s="28"/>
       <c r="U97" s="29"/>
-      <c r="V97" s="38" t="s">
+      <c r="V97" s="27" t="s">
         <v>69</v>
       </c>
       <c r="W97" s="28"/>
@@ -8655,7 +8652,7 @@
       <c r="S98" s="28"/>
       <c r="T98" s="28"/>
       <c r="U98" s="29"/>
-      <c r="V98" s="38" t="s">
+      <c r="V98" s="27" t="s">
         <v>72</v>
       </c>
       <c r="W98" s="28"/>
@@ -8837,11 +8834,11 @@
     <row r="102" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="41" t="s">
+      <c r="C102" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D102" s="42"/>
-      <c r="E102" s="43"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="42"/>
       <c r="F102" s="27" t="s">
         <v>77</v>
       </c>
@@ -9383,7 +9380,7 @@
       <c r="S111" s="28"/>
       <c r="T111" s="28"/>
       <c r="U111" s="29"/>
-      <c r="V111" s="44" t="s">
+      <c r="V111" s="43" t="s">
         <v>46</v>
       </c>
       <c r="W111" s="28"/>
@@ -9595,11 +9592,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D115" s="39" t="s">
+      <c r="D115" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F115" s="39"/>
-      <c r="G115" s="39"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="38"/>
       <c r="H115" s="28"/>
       <c r="I115" s="28"/>
       <c r="J115" s="28"/>
@@ -10050,10 +10047,10 @@
       <c r="AJ122" s="28"/>
       <c r="AK122" s="28"/>
       <c r="AL122" s="28"/>
-      <c r="AM122" s="45"/>
-      <c r="AN122" s="45"/>
-      <c r="AO122" s="45"/>
-      <c r="AP122" s="46"/>
+      <c r="AM122" s="44"/>
+      <c r="AN122" s="44"/>
+      <c r="AO122" s="44"/>
+      <c r="AP122" s="45"/>
       <c r="AQ122" s="9"/>
       <c r="AR122" s="9"/>
       <c r="AS122" s="9"/>
@@ -10109,10 +10106,10 @@
       <c r="AJ123" s="28"/>
       <c r="AK123" s="28"/>
       <c r="AL123" s="28"/>
-      <c r="AM123" s="45"/>
-      <c r="AN123" s="45"/>
-      <c r="AO123" s="45"/>
-      <c r="AP123" s="46"/>
+      <c r="AM123" s="44"/>
+      <c r="AN123" s="44"/>
+      <c r="AO123" s="44"/>
+      <c r="AP123" s="45"/>
       <c r="AQ123" s="9"/>
       <c r="AR123" s="9"/>
       <c r="AS123" s="9"/>
@@ -10438,11 +10435,11 @@
     <row r="130" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="41" t="s">
+      <c r="C130" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D130" s="42"/>
-      <c r="E130" s="43"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="42"/>
       <c r="F130" s="27" t="s">
         <v>89</v>
       </c>
@@ -10827,7 +10824,7 @@
     <row r="137" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="47"/>
+      <c r="C137" s="46"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
@@ -11077,11 +11074,11 @@
     <row r="142" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
-      <c r="D142" s="41" t="s">
+      <c r="D142" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E142" s="42"/>
-      <c r="F142" s="43"/>
+      <c r="E142" s="41"/>
+      <c r="F142" s="42"/>
       <c r="G142" s="27" t="s">
         <v>96</v>
       </c>
@@ -11604,11 +11601,11 @@
     <row r="152" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="41" t="s">
+      <c r="C152" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D152" s="42"/>
-      <c r="E152" s="43"/>
+      <c r="D152" s="41"/>
+      <c r="E152" s="42"/>
       <c r="F152" s="27" t="s">
         <v>89</v>
       </c>
@@ -12249,11 +12246,11 @@
     <row r="164" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
-      <c r="D164" s="41" t="s">
+      <c r="D164" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="E164" s="42"/>
-      <c r="F164" s="43"/>
+      <c r="E164" s="41"/>
+      <c r="F164" s="42"/>
       <c r="G164" s="27" t="s">
         <v>107</v>
       </c>
@@ -13035,7 +13032,7 @@
       <c r="S178" s="28"/>
       <c r="T178" s="28"/>
       <c r="U178" s="29"/>
-      <c r="V178" s="38" t="s">
+      <c r="V178" s="27" t="s">
         <v>115</v>
       </c>
       <c r="W178" s="28"/>
@@ -13679,11 +13676,11 @@
     </row>
     <row r="190" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A190" s="6"/>
-      <c r="C190" s="41" t="s">
+      <c r="C190" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D190" s="42"/>
-      <c r="E190" s="43"/>
+      <c r="D190" s="41"/>
+      <c r="E190" s="42"/>
       <c r="F190" s="27" t="s">
         <v>125</v>
       </c>
